--- a/res/template/Book1.xlsx
+++ b/res/template/Book1.xlsx
@@ -1,111 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22035" windowHeight="9855"/>
+    <workbookView windowWidth="28140" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="员工" sheetId="1" r:id="rId1"/>
     <sheet name="客人" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>日期</t>
+  </si>
   <si>
     <t>号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总工时</t>
+  </si>
+  <si>
+    <t>打卡次数</t>
   </si>
   <si>
     <t>记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NO1231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨万里</t>
+  </si>
+  <si>
+    <t>NO1232</t>
   </si>
   <si>
     <t>万寿场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打卡次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO1232</t>
-  </si>
-  <si>
-    <t>总工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO1233</t>
+  </si>
+  <si>
+    <t>万寿场1</t>
+  </si>
+  <si>
+    <t>NO1234</t>
+  </si>
+  <si>
+    <t>万寿场2</t>
   </si>
   <si>
     <t>到访次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,55 +123,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -218,71 +232,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,8 +429,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -452,170 +466,526 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="14.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="5" customWidth="1"/>
+    <col min="6" max="11" width="9.5" style="4" customWidth="1"/>
+    <col min="12" max="14" width="9.375" style="4"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>41344</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <f>LOOKUP(9^9,2:2) - F2</f>
-        <v>0.37525462962962963</v>
-      </c>
-      <c r="E2" s="4">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <f>LOOKUP(9^9,2:2)-F2</f>
+        <v>0.37525462962963</v>
+      </c>
+      <c r="E2" s="5">
         <f>COUNTA(F2:AAA2)</f>
         <v>5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>0.4375</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.77430555555555547</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.81275462962962963</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>41344</v>
-      </c>
+      <c r="G2" s="4">
+        <v>0.774305555555555</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.81275462962963</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <f>LOOKUP(9^9,3:3)-F3</f>
+        <v>0.373171296296296</v>
+      </c>
+      <c r="E3" s="5">
+        <f>COUNTA(F3:AAA3)</f>
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.48125</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.774305555555555</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.81275462962963</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.854421296296296</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.854421296296296</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.854421296296296</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.854421296296296</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9">
+        <f>LOOKUP(9^9,4:4)-F4</f>
+        <v>0.3125</v>
+      </c>
+      <c r="E4" s="5">
+        <f>COUNTA(F4:AAA4)</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.774305555555555</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <f>LOOKUP(9^9,5:5)-F5</f>
+        <v>0.333587962962963</v>
+      </c>
+      <c r="E5" s="5">
+        <f>COUNTA(F5:AAA5)</f>
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.774305555555555</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.81275462962963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>41345</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:D15" si="0">LOOKUP(9^9,7:7)-F7</f>
+        <v>0.361111111111111</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E15" si="1">COUNTA(F7:AAA7)</f>
         <v>4</v>
       </c>
-      <c r="D3" s="1">
-        <f>LOOKUP(9^9,3:3) - F3</f>
-        <v>0.37525462962962958</v>
-      </c>
-      <c r="E3" s="4">
-        <f>COUNTA(F3:AAA3)</f>
+      <c r="F7" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.774305555555555</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.798611111111111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <f>LOOKUP(9^9,8:8)-F8</f>
+        <v>0.373171296296296</v>
+      </c>
+      <c r="E8" s="5">
+        <f>COUNTA(F8:AAA8)</f>
         <v>6</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.77430555555555547</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.81275462962962963</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.85442129629629626</v>
+      <c r="F8" s="4">
+        <v>0.48125</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.774305555555555</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.81275462962963</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.854421296296296</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9">
+        <f>LOOKUP(9^9,9:9)-F9</f>
+        <v>0.3125</v>
+      </c>
+      <c r="E9" s="5">
+        <f>COUNTA(F9:AAA9)</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.774305555555555</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
+        <f>LOOKUP(9^9,10:10)-F10</f>
+        <v>0.333587962962963</v>
+      </c>
+      <c r="E10" s="5">
+        <f>COUNTA(F10:AAA10)</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.774305555555555</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.81275462962963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>41345</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4">
+        <f>LOOKUP(9^9,12:12)-F12</f>
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E12" s="5">
+        <f>COUNTA(F12:AAA12)</f>
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.774305555555555</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9">
+        <f>LOOKUP(9^9,13:13)-F13</f>
+        <v>0.33150462962963</v>
+      </c>
+      <c r="E13" s="5">
+        <f>COUNTA(F13:AAA13)</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.48125</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.774305555555555</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.81275462962963</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9">
+        <f>LOOKUP(9^9,14:14)-F14</f>
+        <v>0.326388888888889</v>
+      </c>
+      <c r="E14" s="5">
+        <f>COUNTA(F14:AAA14)</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.774305555555555</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.805555555555556</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9">
+        <f>LOOKUP(9^9,15:15)-F15</f>
+        <v>0.3125</v>
+      </c>
+      <c r="E15" s="5">
+        <f>COUNTA(F15:AAA15)</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.774305555555555</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.791666666666667</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>